--- a/console/Networking/agExcel/listItem.xlsx
+++ b/console/Networking/agExcel/listItem.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lulu8/Documents/帮助文档/en/console/Networking/agExcel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3040FF-0383-394E-97D7-26EED0161329}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10740"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27840" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <r>
       <rPr>
@@ -284,13 +290,17 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>Please remove the VMs from the AG first.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -679,22 +689,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="34.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,7 +716,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="19">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -716,7 +727,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="57">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -727,7 +738,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="19">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -738,7 +749,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="19">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -749,7 +760,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="19">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -760,7 +771,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="38">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -770,8 +781,11 @@
       <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -782,7 +796,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="19">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -793,7 +807,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="19">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>

--- a/console/Networking/agExcel/listItem.xlsx
+++ b/console/Networking/agExcel/listItem.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lulu8/Documents/帮助文档/en/console/Networking/agExcel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\文件\工作-中译语通\2019年\3\console_feedback_Output-李保斗反馈-0401\需确认\需确认-确认by-GTCOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3040FF-0383-394E-97D7-26EED0161329}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27840" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="21840" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <r>
       <rPr>
@@ -278,9 +277,6 @@
   </si>
   <si>
     <t>Enable Auto Scaling</t>
-  </si>
-  <si>
-    <t>Please firstly remove Availability Group Private Virtual Machines</t>
   </si>
   <si>
     <t>Delete</t>
@@ -299,8 +295,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -689,23 +685,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="51.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="51.375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,7 +712,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -727,7 +723,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="57">
+    <row r="3" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -738,7 +734,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -749,7 +745,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="19">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -760,7 +756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="19">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -771,7 +767,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="38">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -779,13 +775,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="19">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -793,10 +786,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="19">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -804,10 +797,10 @@
         <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -815,7 +808,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
